--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ray\Documents\Projects\Ruby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97A95DB-2069-4070-A42E-5EA150895EB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86D7FCD-2C51-4EDB-A2D0-BAB72449FFA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -43,67 +43,43 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2018-11-11 Sun 17:03&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator/VAR</t>
-  </si>
-  <si>
-    <t>90K/yr</t>
-  </si>
-  <si>
-    <t>Mass Hire</t>
-  </si>
-  <si>
-    <t>Janice Quaid jmcquaid@masshiremsw.com</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Follow-up requested answered questions regarding case advisor and last day worked.</t>
-  </si>
-  <si>
-    <t>&lt;2018-11-12 Mon 08:49&gt;</t>
-  </si>
-  <si>
-    <t>IT Support</t>
-  </si>
-  <si>
-    <t>50K/yr</t>
-  </si>
-  <si>
-    <t>Dans PC</t>
-  </si>
-  <si>
-    <t>Dan Adams dan@danpc.net</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>Follow-up requested met up at Flat Penny. West St. Berlin</t>
-  </si>
-  <si>
-    <t>Systems Integrator/ VAR</t>
-  </si>
-  <si>
-    <t>$90K</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Career Centers</t>
-  </si>
-  <si>
-    <t>Doug Cole &lt;dcole@masshiremsw.com&gt;</t>
-  </si>
-  <si>
-    <t>Follow-up Requested Fill out BSR packet</t>
-  </si>
-  <si>
-    <t>&lt;2018-11-17 Sat 08:49&gt;</t>
-  </si>
-  <si>
-    <t>Follow-up requested met up at Liberty Tavern. High St. Clinton MA</t>
+    <t>&lt;2018-11-18 Sun 21:56&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator VAR</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>Matthew Handler  - Recruitment Consultant</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>&lt;2018-11-19 Mon 21:56&gt;</t>
+  </si>
+  <si>
+    <t>Sankat Arbat  - Recruiter</t>
+  </si>
+  <si>
+    <t>&lt;2018-11-20 Tue 21:56&gt;</t>
+  </si>
+  <si>
+    <t>Josh Leventhal  - Marketer/Writer</t>
+  </si>
+  <si>
+    <t>&lt;2018-11-21 Wed 21:56&gt;</t>
+  </si>
+  <si>
+    <t>MIRZA ASLAMULLAH BAIG - DBA (Database Administrator)</t>
   </si>
 </sst>
 </file>
@@ -944,14 +920,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1004,65 +978,68 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86D7FCD-2C51-4EDB-A2D0-BAB72449FFA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C6E1E9-912E-4AFF-984E-AB37088333CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5832"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
   <sheets>
     <sheet name="the_file" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -43,43 +43,256 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2018-11-18 Sun 21:56&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator VAR</t>
+    <t>&lt;2019-03-11 Mon 20:15&gt;</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Axelon Services Corporation</t>
+  </si>
+  <si>
+    <t>Tulasi Kaipu &lt;saitulasi.kaipu@axelon.com&gt;</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Follow up requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-11 Mon 20:21&gt;</t>
+  </si>
+  <si>
+    <t>Systems &amp; Servers Admin</t>
+  </si>
+  <si>
+    <t>Oxford Global Resources</t>
+  </si>
+  <si>
+    <t>Randi Noonan &lt;randi_noonan@oxfordcorp.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-11 Mon 17:58&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
   </si>
   <si>
     <t>$90K/yr</t>
   </si>
   <si>
-    <t>http://www.linkedin.com</t>
-  </si>
-  <si>
-    <t>Matthew Handler  - Recruitment Consultant</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>&lt;2018-11-19 Mon 21:56&gt;</t>
-  </si>
-  <si>
-    <t>Sankat Arbat  - Recruiter</t>
-  </si>
-  <si>
-    <t>&lt;2018-11-20 Tue 21:56&gt;</t>
-  </si>
-  <si>
-    <t>Josh Leventhal  - Marketer/Writer</t>
-  </si>
-  <si>
-    <t>&lt;2018-11-21 Wed 21:56&gt;</t>
-  </si>
-  <si>
-    <t>MIRZA ASLAMULLAH BAIG - DBA (Database Administrator)</t>
+    <t>Tatnuck Worcester Rd Westboro</t>
+  </si>
+  <si>
+    <t>David Sullivan and Group tatnuck_group@yahoogroups.com</t>
+  </si>
+  <si>
+    <t>Communicated opportunity to group</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 20:40&gt;</t>
+  </si>
+  <si>
+    <t>Multiple follow-up</t>
+  </si>
+  <si>
+    <t>ZipRecruiter.com</t>
+  </si>
+  <si>
+    <t>Team@ziprecruiter.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 20:46&gt;</t>
+  </si>
+  <si>
+    <t>Windows Server Admin</t>
+  </si>
+  <si>
+    <t>KTEK Resourcing</t>
+  </si>
+  <si>
+    <t>Asha Malviya &lt;asha.malviya@ktekresourcing.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 19:05&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server DBA</t>
+  </si>
+  <si>
+    <t>$90K</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Career Centers</t>
+  </si>
+  <si>
+    <t>Ed Lawrence &lt;elawrence@masshiremsw.com&gt;</t>
+  </si>
+  <si>
+    <t>Sent great article on networking</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 20:54&gt;</t>
+  </si>
+  <si>
+    <t>IT Infrastructure Engineer</t>
+  </si>
+  <si>
+    <t>Jelena Stevanovic &lt;Jelena.stevanovic@axelon.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 20:59&gt;</t>
+  </si>
+  <si>
+    <t>Help Desk Operator</t>
+  </si>
+  <si>
+    <t>IT Trailblazers.</t>
+  </si>
+  <si>
+    <t>Dipesh Sahu &lt;dipesh@ittblazers.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 21:05&gt;</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>Huxley</t>
+  </si>
+  <si>
+    <t>Michael Draine &lt;m.draine@huxley.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 21:18&gt;</t>
+  </si>
+  <si>
+    <t>Database Administrator</t>
+  </si>
+  <si>
+    <t>Huxley IT</t>
+  </si>
+  <si>
+    <t>Debbie Riva &lt;d.riva@huxley.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 21:27&gt;</t>
+  </si>
+  <si>
+    <t>Desktop Support Technician</t>
+  </si>
+  <si>
+    <t>Robert Half Strategic Accounts</t>
+  </si>
+  <si>
+    <t>Dunn, Brandon (04860) &lt;Brandon.Dunn@roberthalf.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 21:33&gt;</t>
+  </si>
+  <si>
+    <t>Spectraforce Technologies Inc.</t>
+  </si>
+  <si>
+    <t>Diksha &lt;diksha.sharma@spectraforce.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-12 Tue 21:43&gt;</t>
+  </si>
+  <si>
+    <t>Application Engineer</t>
+  </si>
+  <si>
+    <t>Insight Global, LLC</t>
+  </si>
+  <si>
+    <t>Jessie Belz &lt;inmail-hit-reply@linkedin.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-13 Wed 19:05&gt;</t>
+  </si>
+  <si>
+    <t>Frank Yeoung frankxyeung@gmail.com</t>
+  </si>
+  <si>
+    <t>Follow-up on yesterdays meeting events</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-13 Thu 13:14&gt;</t>
+  </si>
+  <si>
+    <t>Onsite Systems Administrator</t>
+  </si>
+  <si>
+    <t>www.matrixonweb.com</t>
+  </si>
+  <si>
+    <t>Rohan Chauhan (Executive Recruiter)</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-14 Thu 19:05&gt;</t>
+  </si>
+  <si>
+    <t>Vic Camilleri vic@vcamilleri.com</t>
+  </si>
+  <si>
+    <t>Provided info on OpenVMS</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-14 Thu 17:58&gt;</t>
+  </si>
+  <si>
+    <t>Emailed new company list I created</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-14 Thu 13:37&gt;</t>
+  </si>
+  <si>
+    <t>QA Automation Engineer</t>
+  </si>
+  <si>
+    <t>www.jvtadvisors.com</t>
+  </si>
+  <si>
+    <t>Brian Jobin &lt;Bjobin@jvtadvisors.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-15 Fri 13:43&gt;</t>
+  </si>
+  <si>
+    <t>Help Desk Support II</t>
+  </si>
+  <si>
+    <t>Matrix Technology Group</t>
+  </si>
+  <si>
+    <t>Vivek Tiwari vtiwari@matrixonweb.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-15 Fri 14:05&gt;</t>
+  </si>
+  <si>
+    <t>Python Developer</t>
+  </si>
+  <si>
+    <t>Indotronix International Corporation</t>
+  </si>
+  <si>
+    <t>Tim Mokidi &lt;tim@iic.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-16 Sat 17:22&gt;</t>
+  </si>
+  <si>
+    <t>SQA Tester</t>
+  </si>
+  <si>
+    <t>DTG Global Staffing</t>
+  </si>
+  <si>
+    <t>Amy Borkar Amy.Borkar@dtglobalstaffing.com</t>
   </si>
 </sst>
 </file>
@@ -920,10 +1133,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -957,89 +1169,432 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C6E1E9-912E-4AFF-984E-AB37088333CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4854942-8A62-447B-B30B-01224B4200CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -43,256 +43,277 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-03-11 Mon 20:15&gt;</t>
-  </si>
-  <si>
-    <t>Business Analyst</t>
+    <t>&lt;2019-03-25 Mon 19:05&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server DBA</t>
+  </si>
+  <si>
+    <t>$90K</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Career Centers</t>
+  </si>
+  <si>
+    <t>Lorraine Pocon lpocon@masshiremsw.com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Signed Up for BSR Notifications</t>
+  </si>
+  <si>
+    <t>Ed Lawrence elawrence@masshiremsw.com</t>
+  </si>
+  <si>
+    <t>Confirmation of tomorrows meeting</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-25 Mon 13:50&gt;</t>
+  </si>
+  <si>
+    <t>Oracle E-Business Suite SQA Tester</t>
+  </si>
+  <si>
+    <t>Dimensional Thinking, LLC</t>
+  </si>
+  <si>
+    <t>Amy Borkar via bullhornmail.com</t>
+  </si>
+  <si>
+    <t>Follow up requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-25 Mon 16:47&gt;</t>
+  </si>
+  <si>
+    <t>VMware Engineer</t>
+  </si>
+  <si>
+    <t>NTT DATA Services</t>
+  </si>
+  <si>
+    <t>Siddharth Mishra &lt;siddharth.mishra@nttdata.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-25 Mon 17:48&gt;</t>
+  </si>
+  <si>
+    <t>QA Engineer</t>
   </si>
   <si>
     <t>Axelon Services Corporation</t>
   </si>
   <si>
-    <t>Tulasi Kaipu &lt;saitulasi.kaipu@axelon.com&gt;</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Follow up requested</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-11 Mon 20:21&gt;</t>
-  </si>
-  <si>
-    <t>Systems &amp; Servers Admin</t>
-  </si>
-  <si>
-    <t>Oxford Global Resources</t>
-  </si>
-  <si>
-    <t>Randi Noonan &lt;randi_noonan@oxfordcorp.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-11 Mon 17:58&gt;</t>
+    <t>Kalyani Munamarthi &lt;kalyani.munamarthi@axelon.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-26 Tue 17:57&gt;</t>
+  </si>
+  <si>
+    <t>MS Access developer</t>
+  </si>
+  <si>
+    <t>ApTask</t>
+  </si>
+  <si>
+    <t>Aravind Vennam &lt;vennam@aptask.com&gt;</t>
+  </si>
+  <si>
+    <t>First follow-up email</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-19 Tue 16:31&gt;</t>
+  </si>
+  <si>
+    <t>Programmer - AllStar Staffing Group - Boston, MA</t>
+  </si>
+  <si>
+    <t>AllStar Staffing Group</t>
+  </si>
+  <si>
+    <t>Rob Greco</t>
+  </si>
+  <si>
+    <t>215-944-8140</t>
+  </si>
+  <si>
+    <t>Talked to Rob and email new resume</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-26 Tue 18:20&gt;</t>
+  </si>
+  <si>
+    <t>DB2 DBA</t>
+  </si>
+  <si>
+    <t>Voto Consulting LLC</t>
+  </si>
+  <si>
+    <t>Himanshu Kumar himanshu@votoconsulting.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-26 Tue 18:26&gt;</t>
+  </si>
+  <si>
+    <t>Help Desk Technical Support</t>
+  </si>
+  <si>
+    <t>http://www.sigmainc.com</t>
+  </si>
+  <si>
+    <t>Surya Ponnada sponnada@sigmainc.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-26 Tue 18:30&gt;</t>
+  </si>
+  <si>
+    <t>Software Developer (2) C#/.net</t>
+  </si>
+  <si>
+    <t>Robert Half Technology</t>
+  </si>
+  <si>
+    <t>Ryan Staab ryan.staab@rht.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-26 Tue 21:56&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator VAR</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>David Talamo Financial MGR</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-27 Wed 19:05&gt;</t>
+  </si>
+  <si>
+    <t>Frank Yeoung</t>
+  </si>
+  <si>
+    <t>Contact maintenance and discussing opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-27 Wed 20:20&gt;</t>
+  </si>
+  <si>
+    <t>Operations/Project Manager with Salesforce experience</t>
+  </si>
+  <si>
+    <t>US Tech Solutions.</t>
+  </si>
+  <si>
+    <t>Kapil Kumar &lt;kapil@ustechsolutions.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-27 Wed 20:25&gt;</t>
+  </si>
+  <si>
+    <t>Deskside Technician</t>
+  </si>
+  <si>
+    <t>Dipak Domane dipakd@aptask.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-27 Wed 17:58&gt;</t>
   </si>
   <si>
     <t>Systems Integrator</t>
   </si>
   <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
     <t>Tatnuck Worcester Rd Westboro</t>
   </si>
   <si>
     <t>David Sullivan and Group tatnuck_group@yahoogroups.com</t>
   </si>
   <si>
-    <t>Communicated opportunity to group</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 20:40&gt;</t>
-  </si>
-  <si>
-    <t>Multiple follow-up</t>
-  </si>
-  <si>
-    <t>ZipRecruiter.com</t>
-  </si>
-  <si>
-    <t>Team@ziprecruiter.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 20:46&gt;</t>
-  </si>
-  <si>
-    <t>Windows Server Admin</t>
-  </si>
-  <si>
-    <t>KTEK Resourcing</t>
-  </si>
-  <si>
-    <t>Asha Malviya &lt;asha.malviya@ktekresourcing.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 19:05&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server DBA</t>
-  </si>
-  <si>
-    <t>$90K</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Career Centers</t>
-  </si>
-  <si>
-    <t>Ed Lawrence &lt;elawrence@masshiremsw.com&gt;</t>
-  </si>
-  <si>
-    <t>Sent great article on networking</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 20:54&gt;</t>
-  </si>
-  <si>
-    <t>IT Infrastructure Engineer</t>
-  </si>
-  <si>
-    <t>Jelena Stevanovic &lt;Jelena.stevanovic@axelon.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 20:59&gt;</t>
-  </si>
-  <si>
-    <t>Help Desk Operator</t>
-  </si>
-  <si>
-    <t>IT Trailblazers.</t>
-  </si>
-  <si>
-    <t>Dipesh Sahu &lt;dipesh@ittblazers.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 21:05&gt;</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>Huxley</t>
-  </si>
-  <si>
-    <t>Michael Draine &lt;m.draine@huxley.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 21:18&gt;</t>
-  </si>
-  <si>
-    <t>Database Administrator</t>
-  </si>
-  <si>
-    <t>Huxley IT</t>
-  </si>
-  <si>
-    <t>Debbie Riva &lt;d.riva@huxley.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 21:27&gt;</t>
-  </si>
-  <si>
-    <t>Desktop Support Technician</t>
-  </si>
-  <si>
-    <t>Robert Half Strategic Accounts</t>
-  </si>
-  <si>
-    <t>Dunn, Brandon (04860) &lt;Brandon.Dunn@roberthalf.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 21:33&gt;</t>
-  </si>
-  <si>
-    <t>Spectraforce Technologies Inc.</t>
-  </si>
-  <si>
-    <t>Diksha &lt;diksha.sharma@spectraforce.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-12 Tue 21:43&gt;</t>
-  </si>
-  <si>
-    <t>Application Engineer</t>
-  </si>
-  <si>
-    <t>Insight Global, LLC</t>
-  </si>
-  <si>
-    <t>Jessie Belz &lt;inmail-hit-reply@linkedin.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-13 Wed 19:05&gt;</t>
-  </si>
-  <si>
-    <t>Frank Yeoung frankxyeung@gmail.com</t>
-  </si>
-  <si>
-    <t>Follow-up on yesterdays meeting events</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-13 Thu 13:14&gt;</t>
-  </si>
-  <si>
-    <t>Onsite Systems Administrator</t>
-  </si>
-  <si>
-    <t>www.matrixonweb.com</t>
-  </si>
-  <si>
-    <t>Rohan Chauhan (Executive Recruiter)</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-14 Thu 19:05&gt;</t>
-  </si>
-  <si>
-    <t>Vic Camilleri vic@vcamilleri.com</t>
-  </si>
-  <si>
-    <t>Provided info on OpenVMS</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-14 Thu 17:58&gt;</t>
-  </si>
-  <si>
-    <t>Emailed new company list I created</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-14 Thu 13:37&gt;</t>
-  </si>
-  <si>
-    <t>QA Automation Engineer</t>
-  </si>
-  <si>
-    <t>www.jvtadvisors.com</t>
-  </si>
-  <si>
-    <t>Brian Jobin &lt;Bjobin@jvtadvisors.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-15 Fri 13:43&gt;</t>
-  </si>
-  <si>
-    <t>Help Desk Support II</t>
-  </si>
-  <si>
-    <t>Matrix Technology Group</t>
-  </si>
-  <si>
-    <t>Vivek Tiwari vtiwari@matrixonweb.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-15 Fri 14:05&gt;</t>
-  </si>
-  <si>
-    <t>Python Developer</t>
-  </si>
-  <si>
-    <t>Indotronix International Corporation</t>
-  </si>
-  <si>
-    <t>Tim Mokidi &lt;tim@iic.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-16 Sat 17:22&gt;</t>
-  </si>
-  <si>
-    <t>SQA Tester</t>
-  </si>
-  <si>
-    <t>DTG Global Staffing</t>
-  </si>
-  <si>
-    <t>Amy Borkar Amy.Borkar@dtglobalstaffing.com</t>
+    <t>Email reminder of Salesforce event</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-28 Thu 20:51&gt;</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Talent Retriever</t>
+  </si>
+  <si>
+    <t>Leslie Morgan inmail-hit-reply@linkedin.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-28 Thu 21:23&gt;</t>
+  </si>
+  <si>
+    <t>Helpdesk Temp/Perm</t>
+  </si>
+  <si>
+    <t>The CEI Group</t>
+  </si>
+  <si>
+    <t>Daniel DesJardins ddesjardins@theceigroup.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-28 Thu 23:32&gt;</t>
+  </si>
+  <si>
+    <t>Senior Business Data analyst</t>
+  </si>
+  <si>
+    <t>IDC Technologies Inc</t>
+  </si>
+  <si>
+    <t>Ritesh Jaiswal &lt;ritesh.j@idctechnologies.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-29 Fri 07:46&gt;</t>
+  </si>
+  <si>
+    <t>Intermediate Technical Staff</t>
+  </si>
+  <si>
+    <t>ZipRecruiter</t>
+  </si>
+  <si>
+    <t>Phil @ ZipRecruiter &lt;phil@ziprecruiter.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-29 Fri 07:54&gt;</t>
+  </si>
+  <si>
+    <t>PT Evening Instructor</t>
+  </si>
+  <si>
+    <t>MassHire</t>
+  </si>
+  <si>
+    <t>Ed Lawrence elawrence@masshiresw.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-03-30 Sat 19:57&gt;</t>
+  </si>
+  <si>
+    <t>Test Engineer</t>
+  </si>
+  <si>
+    <t>E TalentNetwork</t>
+  </si>
+  <si>
+    <t>Jeremy Williams &lt;jeremyw@etalentnetwork.com&gt;</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1169,143 +1190,143 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1322,10 +1343,10 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1342,10 +1363,10 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1362,10 +1383,10 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1375,226 +1396,226 @@
       <c r="B12" t="s">
         <v>53</v>
       </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4854942-8A62-447B-B30B-01224B4200CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D8B5C9A0-1179-4D1A-B1AB-42214682C48B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -43,7 +43,70 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-03-25 Mon 19:05&gt;</t>
+    <t>&lt;2019-04-22 Mon 12:37&gt;</t>
+  </si>
+  <si>
+    <t>Database Administrator</t>
+  </si>
+  <si>
+    <t>GTIT</t>
+  </si>
+  <si>
+    <t>Susan G 603.516.4447</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Follow up requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-22 Mon 16:11&gt;</t>
+  </si>
+  <si>
+    <t>Software Engineer II</t>
+  </si>
+  <si>
+    <t>RetirementJobs.com/Wayfair https://retirementjobs.com/job/software-engineer-ii-boston-massachusetts-15783128</t>
+  </si>
+  <si>
+    <t>anonymous</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-22 Mon 10:38&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server Admin</t>
+  </si>
+  <si>
+    <t>$80K/yr</t>
+  </si>
+  <si>
+    <t>New Horizons</t>
+  </si>
+  <si>
+    <t>Chris Clifford 1-401-633-3215</t>
+  </si>
+  <si>
+    <t>Discussed What is Trades program</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-23 Tue 08:15&gt;</t>
+  </si>
+  <si>
+    <t>Systems Administrator</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Kyle Potter KPotter@advancedtechno.com Monster.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-23 Tue 19:05&gt;</t>
   </si>
   <si>
     <t>SQL Server DBA</t>
@@ -55,265 +118,130 @@
     <t>MassHire Framingham Career Centers</t>
   </si>
   <si>
-    <t>Lorraine Pocon lpocon@masshiremsw.com</t>
+    <t>Ed Lawrence elawrence@masshiremsw.com  Worcester Rd Framingham MA</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>Signed Up for BSR Notifications</t>
-  </si>
-  <si>
-    <t>Ed Lawrence elawrence@masshiremsw.com</t>
-  </si>
-  <si>
-    <t>Confirmation of tomorrows meeting</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-25 Mon 13:50&gt;</t>
-  </si>
-  <si>
-    <t>Oracle E-Business Suite SQA Tester</t>
-  </si>
-  <si>
-    <t>Dimensional Thinking, LLC</t>
-  </si>
-  <si>
-    <t>Amy Borkar via bullhornmail.com</t>
-  </si>
-  <si>
-    <t>Follow up requested</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-25 Mon 16:47&gt;</t>
-  </si>
-  <si>
-    <t>VMware Engineer</t>
-  </si>
-  <si>
-    <t>NTT DATA Services</t>
-  </si>
-  <si>
-    <t>Siddharth Mishra &lt;siddharth.mishra@nttdata.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-25 Mon 17:48&gt;</t>
-  </si>
-  <si>
-    <t>QA Engineer</t>
-  </si>
-  <si>
-    <t>Axelon Services Corporation</t>
-  </si>
-  <si>
-    <t>Kalyani Munamarthi &lt;kalyani.munamarthi@axelon.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-26 Tue 17:57&gt;</t>
-  </si>
-  <si>
-    <t>MS Access developer</t>
-  </si>
-  <si>
-    <t>ApTask</t>
-  </si>
-  <si>
-    <t>Aravind Vennam &lt;vennam@aptask.com&gt;</t>
-  </si>
-  <si>
-    <t>First follow-up email</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-19 Tue 16:31&gt;</t>
-  </si>
-  <si>
-    <t>Programmer - AllStar Staffing Group - Boston, MA</t>
-  </si>
-  <si>
-    <t>AllStar Staffing Group</t>
-  </si>
-  <si>
-    <t>Rob Greco</t>
-  </si>
-  <si>
-    <t>215-944-8140</t>
-  </si>
-  <si>
-    <t>Talked to Rob and email new resume</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-26 Tue 18:20&gt;</t>
-  </si>
-  <si>
-    <t>DB2 DBA</t>
-  </si>
-  <si>
-    <t>Voto Consulting LLC</t>
-  </si>
-  <si>
-    <t>Himanshu Kumar himanshu@votoconsulting.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-26 Tue 18:26&gt;</t>
-  </si>
-  <si>
-    <t>Help Desk Technical Support</t>
-  </si>
-  <si>
-    <t>http://www.sigmainc.com</t>
-  </si>
-  <si>
-    <t>Surya Ponnada sponnada@sigmainc.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-26 Tue 18:30&gt;</t>
-  </si>
-  <si>
-    <t>Software Developer (2) C#/.net</t>
-  </si>
-  <si>
-    <t>Robert Half Technology</t>
-  </si>
-  <si>
-    <t>Ryan Staab ryan.staab@rht.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-26 Tue 21:56&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator VAR</t>
+    <t>LEADS- Careers at the Executive Office of Health and Human Services</t>
+  </si>
+  <si>
+    <t>Doug Cole dcole@masshiremsw.com  Worcester Rd Framingham MA</t>
+  </si>
+  <si>
+    <t>Responded to leads and requested appointment for next Tuesday</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-24 Wed 19:05&gt;</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan  Worcester Rd Westboro MA</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-24 Wed 23:16&gt;</t>
+  </si>
+  <si>
+    <t>Computer Technician II</t>
+  </si>
+  <si>
+    <t>US Tech Solutions</t>
+  </si>
+  <si>
+    <t>Modassir Ahsan &lt;ahsan@ustechsolutionsinc.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-25 Thu 17:58&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
   </si>
   <si>
     <t>$90K/yr</t>
   </si>
   <si>
-    <t>http://www.linkedin.com</t>
-  </si>
-  <si>
-    <t>David Talamo Financial MGR</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-27 Wed 19:05&gt;</t>
-  </si>
-  <si>
-    <t>Frank Yeoung</t>
-  </si>
-  <si>
-    <t>Contact maintenance and discussing opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-27 Wed 20:20&gt;</t>
-  </si>
-  <si>
-    <t>Operations/Project Manager with Salesforce experience</t>
-  </si>
-  <si>
-    <t>US Tech Solutions.</t>
-  </si>
-  <si>
-    <t>Kapil Kumar &lt;kapil@ustechsolutions.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-27 Wed 20:25&gt;</t>
-  </si>
-  <si>
-    <t>Deskside Technician</t>
-  </si>
-  <si>
-    <t>Dipak Domane dipakd@aptask.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-27 Wed 17:58&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
+    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
+  </si>
+  <si>
+    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>Status and interview practice</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-25 Thu 20:01&gt;</t>
+  </si>
+  <si>
+    <t>Marcom communications specialist</t>
+  </si>
+  <si>
+    <t>Alois Staffing LLC</t>
+  </si>
+  <si>
+    <t>Aman Chauhan &lt;aman.chauhan@aloisstaffing.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-26 Fri 10:06&gt;</t>
+  </si>
+  <si>
+    <t>Front-end Developer</t>
+  </si>
+  <si>
+    <t>Kevin Kim &lt;t.kim@huxley.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-26 Fri 17:58&gt;</t>
   </si>
   <si>
     <t>Tatnuck Worcester Rd Westboro</t>
   </si>
   <si>
-    <t>David Sullivan and Group tatnuck_group@yahoogroups.com</t>
-  </si>
-  <si>
-    <t>Email reminder of Salesforce event</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-28 Thu 20:51&gt;</t>
-  </si>
-  <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>Talent Retriever</t>
-  </si>
-  <si>
-    <t>Leslie Morgan inmail-hit-reply@linkedin.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-28 Thu 21:23&gt;</t>
-  </si>
-  <si>
-    <t>Helpdesk Temp/Perm</t>
-  </si>
-  <si>
-    <t>The CEI Group</t>
-  </si>
-  <si>
-    <t>Daniel DesJardins ddesjardins@theceigroup.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-28 Thu 23:32&gt;</t>
-  </si>
-  <si>
-    <t>Senior Business Data analyst</t>
-  </si>
-  <si>
-    <t>IDC Technologies Inc</t>
-  </si>
-  <si>
-    <t>Ritesh Jaiswal &lt;ritesh.j@idctechnologies.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-29 Fri 07:46&gt;</t>
-  </si>
-  <si>
-    <t>Intermediate Technical Staff</t>
+    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA, Vic Camilleri</t>
+  </si>
+  <si>
+    <t>Exchange of leads</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-27 Sat 09:12&gt;</t>
+  </si>
+  <si>
+    <t>Azure DevOps Engineer, Hands-on</t>
+  </si>
+  <si>
+    <t>$180K</t>
+  </si>
+  <si>
+    <t>Nigel Frank International</t>
+  </si>
+  <si>
+    <t>Jack Fischer</t>
+  </si>
+  <si>
+    <t>&lt;2019-04-27 Sat 10:36&gt;</t>
+  </si>
+  <si>
+    <t>Software Release Coordinator</t>
+  </si>
+  <si>
+    <t>$80,000 to $100,000 Annually</t>
   </si>
   <si>
     <t>ZipRecruiter</t>
   </si>
   <si>
-    <t>Phil @ ZipRecruiter &lt;phil@ziprecruiter.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-29 Fri 07:54&gt;</t>
-  </si>
-  <si>
-    <t>PT Evening Instructor</t>
-  </si>
-  <si>
-    <t>MassHire</t>
-  </si>
-  <si>
-    <t>Ed Lawrence elawrence@masshiresw.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-03-30 Sat 19:57&gt;</t>
-  </si>
-  <si>
-    <t>Test Engineer</t>
-  </si>
-  <si>
-    <t>E TalentNetwork</t>
-  </si>
-  <si>
-    <t>Jeremy Williams &lt;jeremyw@etalentnetwork.com&gt;</t>
+    <t>Phil@ziprecruiter.com</t>
+  </si>
+  <si>
+    <t>Submitted application</t>
   </si>
 </sst>
 </file>
@@ -1154,11 +1082,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1190,226 +1124,229 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1417,205 +1354,68 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
         <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D8B5C9A0-1179-4D1A-B1AB-42214682C48B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BAD5F00-5084-48A9-8787-7A0365FDF448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -43,205 +43,289 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-04-22 Mon 12:37&gt;</t>
-  </si>
-  <si>
-    <t>Database Administrator</t>
-  </si>
-  <si>
-    <t>GTIT</t>
-  </si>
-  <si>
-    <t>Susan G 603.516.4447</t>
-  </si>
-  <si>
-    <t>phone</t>
+    <t>&lt;2019-05-05 Sun 15:51&gt;</t>
+  </si>
+  <si>
+    <t>Database Engineer</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Michael Goodwin https://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>web</t>
   </si>
   <si>
     <t>Follow up requested</t>
   </si>
   <si>
-    <t>&lt;2019-04-22 Mon 16:11&gt;</t>
-  </si>
-  <si>
-    <t>Software Engineer II</t>
-  </si>
-  <si>
-    <t>RetirementJobs.com/Wayfair https://retirementjobs.com/job/software-engineer-ii-boston-massachusetts-15783128</t>
-  </si>
-  <si>
-    <t>anonymous</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-22 Mon 10:38&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server Admin</t>
-  </si>
-  <si>
-    <t>$80K/yr</t>
-  </si>
-  <si>
-    <t>New Horizons</t>
-  </si>
-  <si>
-    <t>Chris Clifford 1-401-633-3215</t>
-  </si>
-  <si>
-    <t>Discussed What is Trades program</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-23 Tue 08:15&gt;</t>
-  </si>
-  <si>
-    <t>Systems Administrator</t>
+    <t>&lt;2019-05-05 Sun 22:28&gt;</t>
+  </si>
+  <si>
+    <t>DB2 Database Administrator</t>
+  </si>
+  <si>
+    <t>http://www.rsrit.com/</t>
+  </si>
+  <si>
+    <t>Saikumar Rudharraju saikumar.r@rsrit.com via mailgun.org</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-05 Sun 22:37&gt;</t>
+  </si>
+  <si>
+    <t>Hubspot Developer and Implementation Specialist (Contractor Role)</t>
+  </si>
+  <si>
+    <t>Lenmar Consulting Inc  (a Kellton Tech Company)</t>
+  </si>
+  <si>
+    <t>Valerian-Lenmar &lt;vdcunha@lenmarit.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-05 Sun 22:45&gt;</t>
+  </si>
+  <si>
+    <t>Global Technical Talent, Inc</t>
+  </si>
+  <si>
+    <t>Paula Bryant &lt;pbryant@gttit.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-05 Sun 00:00&gt;</t>
+  </si>
+  <si>
+    <t>Survey Taker</t>
+  </si>
+  <si>
+    <t>Lifepoints</t>
+  </si>
+  <si>
+    <t>http://www.lifepoints.com and SnagaJob.com</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t>Submitted application</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-06 Mon 09:56&gt;</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Free Books</t>
+  </si>
+  <si>
+    <t>Street Team,</t>
+  </si>
+  <si>
+    <t>Damon Zahariades via m.convertkit.com  damon@artofproductivity.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-06 Mon 21:56&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator VAR</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>Brian Long Recruiter</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-06 Mon 22:50&gt;</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Huxley IT</t>
+  </si>
+  <si>
+    <t>Eric Morra e.morra@huxley.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-06 Mon 22:54&gt;</t>
+  </si>
+  <si>
+    <t>Cloud Infrastructure Engineer</t>
+  </si>
+  <si>
+    <t>https://www.xoriant.com/</t>
+  </si>
+  <si>
+    <t>Avinash Patil &lt;Avinash.Patil@xoriant.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-06 Mon 22:58&gt;</t>
+  </si>
+  <si>
+    <t>Jr. Content/Curriculum Developer</t>
+  </si>
+  <si>
+    <t>http://www.gttit.com/</t>
+  </si>
+  <si>
+    <t>Narendra Singh nsingh@gttit.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-06 Mon 23:05&gt;</t>
+  </si>
+  <si>
+    <t>SOLARIS/REDHAT IT TRANSITION Engr.</t>
+  </si>
+  <si>
+    <t>http://www.pdstech.com/</t>
+  </si>
+  <si>
+    <t>Sana Khan &lt;skhan@pdstech.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-06 Mon 23:08&gt;</t>
+  </si>
+  <si>
+    <t>Document Control Coordinator</t>
+  </si>
+  <si>
+    <t>www.ustechsolutions.com</t>
+  </si>
+  <si>
+    <t>Kiran Kumar Saxena &lt;kirans@ustechsolutionsinc.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-07 Tue 21:56&gt;</t>
+  </si>
+  <si>
+    <t>Yeswanth Kumar Recruiter</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-07 Tue 19:05&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server DBA</t>
+  </si>
+  <si>
+    <t>$90K</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Career Centers</t>
+  </si>
+  <si>
+    <t>Jamie and Ed Lawrence elawrence@masshiremsw.com  Worcester Rd Framingham MA</t>
+  </si>
+  <si>
+    <t>in person</t>
+  </si>
+  <si>
+    <t>Career Center RESEA meeting with Jamie and Ed Lawrence</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-08 Wed 21:56&gt;</t>
+  </si>
+  <si>
+    <t>Balakrisnan Modur Deployment Engineer</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-08 Wed 19:05&gt;</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Main St Westboro MA</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-09 Thu 20:48&gt;</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Javen Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Surbhi Singh &lt;surbhi@javentechnologies.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-09 Thu 07:25&gt;</t>
+  </si>
+  <si>
+    <t>AS400 Programmer Analyst</t>
+  </si>
+  <si>
+    <t>Ziprecruiter</t>
+  </si>
+  <si>
+    <t>Team@Ziprecruiter.com</t>
+  </si>
+  <si>
+    <t>Follow up requested informed application was viewed</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-10 Fri 07:25&gt;</t>
+  </si>
+  <si>
+    <t>Informed by ZipRecruiter Job Closed</t>
+  </si>
+  <si>
+    <t>IT Support Engineer (Part Time)</t>
+  </si>
+  <si>
+    <t>Phil@Ziprecruiter.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-11 Sat 06:50&gt;</t>
+  </si>
+  <si>
+    <t>BondLink</t>
+  </si>
+  <si>
+    <t>Kristin Patrick &lt;candidate-0ca890b566e2@bondlink.breezy-mail.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-11 Sat 11:32&gt;</t>
+  </si>
+  <si>
+    <t>IT System Administrator</t>
   </si>
   <si>
     <t>Monster</t>
   </si>
   <si>
-    <t>Kyle Potter KPotter@advancedtechno.com Monster.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-23 Tue 19:05&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server DBA</t>
-  </si>
-  <si>
-    <t>$90K</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Career Centers</t>
-  </si>
-  <si>
-    <t>Ed Lawrence elawrence@masshiremsw.com  Worcester Rd Framingham MA</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>LEADS- Careers at the Executive Office of Health and Human Services</t>
-  </si>
-  <si>
-    <t>Doug Cole dcole@masshiremsw.com  Worcester Rd Framingham MA</t>
-  </si>
-  <si>
-    <t>Responded to leads and requested appointment for next Tuesday</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-24 Wed 19:05&gt;</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s)</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan  Worcester Rd Westboro MA</t>
-  </si>
-  <si>
-    <t>Discuss opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-24 Wed 23:16&gt;</t>
-  </si>
-  <si>
-    <t>Computer Technician II</t>
-  </si>
-  <si>
-    <t>US Tech Solutions</t>
-  </si>
-  <si>
-    <t>Modassir Ahsan &lt;ahsan@ustechsolutionsinc.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-25 Thu 17:58&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
-  </si>
-  <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
-    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
-  </si>
-  <si>
-    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>Status and interview practice</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-25 Thu 20:01&gt;</t>
-  </si>
-  <si>
-    <t>Marcom communications specialist</t>
-  </si>
-  <si>
-    <t>Alois Staffing LLC</t>
-  </si>
-  <si>
-    <t>Aman Chauhan &lt;aman.chauhan@aloisstaffing.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-26 Fri 10:06&gt;</t>
-  </si>
-  <si>
-    <t>Front-end Developer</t>
-  </si>
-  <si>
-    <t>Kevin Kim &lt;t.kim@huxley.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-26 Fri 17:58&gt;</t>
-  </si>
-  <si>
-    <t>Tatnuck Worcester Rd Westboro</t>
-  </si>
-  <si>
-    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA, Vic Camilleri</t>
-  </si>
-  <si>
-    <t>Exchange of leads</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-27 Sat 09:12&gt;</t>
-  </si>
-  <si>
-    <t>Azure DevOps Engineer, Hands-on</t>
-  </si>
-  <si>
-    <t>$180K</t>
-  </si>
-  <si>
-    <t>Nigel Frank International</t>
-  </si>
-  <si>
-    <t>Jack Fischer</t>
-  </si>
-  <si>
-    <t>&lt;2019-04-27 Sat 10:36&gt;</t>
-  </si>
-  <si>
-    <t>Software Release Coordinator</t>
-  </si>
-  <si>
-    <t>$80,000 to $100,000 Annually</t>
-  </si>
-  <si>
-    <t>ZipRecruiter</t>
-  </si>
-  <si>
-    <t>Phil@ziprecruiter.com</t>
-  </si>
-  <si>
-    <t>Submitted application</t>
+    <t>Amarjeet Savant https://www.monster.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-11 Sat 13:24&gt;</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>City Career Fair</t>
+  </si>
+  <si>
+    <t>Phil@ziprecruiter .com</t>
+  </si>
+  <si>
+    <t>Follow up requested Submitted Application</t>
   </si>
 </sst>
 </file>
@@ -1082,17 +1166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1164,34 +1242,31 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1202,85 +1277,88 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1288,12 +1366,9 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
         <v>47</v>
       </c>
       <c r="D10" t="s">
@@ -1303,27 +1378,27 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1331,19 +1406,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1351,13 +1426,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
@@ -1366,56 +1438,239 @@
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BAD5F00-5084-48A9-8787-7A0365FDF448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45070FC4-E406-4D1E-874E-F414F5A0B95C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -43,112 +43,211 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-05-05 Sun 15:51&gt;</t>
-  </si>
-  <si>
-    <t>Database Engineer</t>
-  </si>
-  <si>
-    <t>Interactions</t>
-  </si>
-  <si>
-    <t>Michael Goodwin https://www.linkedin.com</t>
+    <t>&lt;2019-05-13 Mon 13:24&gt;</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>City Career Fair</t>
+  </si>
+  <si>
+    <t>Phil@ziprecruiter .com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Job Closed</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-13 Mon 16:11&gt;</t>
+  </si>
+  <si>
+    <t>Software Engineer II</t>
+  </si>
+  <si>
+    <t>RetirementJobs.com/Wayfair https://retirementjobs.com/job/software-engineer-ii-boston-massachusetts-15783128</t>
+  </si>
+  <si>
+    <t>anonymous</t>
   </si>
   <si>
     <t>web</t>
   </si>
   <si>
+    <t>&lt;2019-05-13 Mon 19:05&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server DBA</t>
+  </si>
+  <si>
+    <t>$90K</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Main St Westboro MA</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-14 Tue 19:05&gt;</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Career Centers</t>
+  </si>
+  <si>
+    <t>Ed Lawrence elawrence@masshiremsw.com  Worcester Rd Framingham MA</t>
+  </si>
+  <si>
+    <t>in person</t>
+  </si>
+  <si>
+    <t>Network Meeting Interview Questions</t>
+  </si>
+  <si>
+    <t>Doug Cole dcole@masshiremsw.com  Worcester Rd Framingham MA</t>
+  </si>
+  <si>
+    <t>Responded to Doug and Eric about Examity Lead</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-14 Tue 21:02&gt;</t>
+  </si>
+  <si>
+    <t>Tech Support</t>
+  </si>
+  <si>
+    <t>$45,000 to $70,000 Annually</t>
+  </si>
+  <si>
+    <t>Ziprecruiter/theITSC</t>
+  </si>
+  <si>
+    <t>Phil@Ziprecruiter.com</t>
+  </si>
+  <si>
+    <t>email/web</t>
+  </si>
+  <si>
+    <t>Follow up requested Submitted Application</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-15 Wed 19:05&gt;</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Colleague(s) at AARP</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Brook St Worcester MA</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-16 Thu 19:05&gt;</t>
+  </si>
+  <si>
+    <t>Responded to Doug and Eric about Examity Lead and sent Resume</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-16 Thu 17:58&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
+  </si>
+  <si>
+    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>Status  and branding workshop.</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-17 Fri 19:05&gt;</t>
+  </si>
+  <si>
+    <t>email &amp; virtual</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-17 Fri 21:02&gt;</t>
+  </si>
+  <si>
+    <t>Follow up requested Submitted Application (2nd Application)</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-17 Fri 17:44&gt;</t>
+  </si>
+  <si>
+    <t>Hubspot Integration Consultant</t>
+  </si>
+  <si>
+    <t>Mondo</t>
+  </si>
+  <si>
+    <t>Carter Lowe carter.lowe@mondo.com</t>
+  </si>
+  <si>
     <t>Follow up requested</t>
   </si>
   <si>
-    <t>&lt;2019-05-05 Sun 22:28&gt;</t>
-  </si>
-  <si>
-    <t>DB2 Database Administrator</t>
-  </si>
-  <si>
-    <t>http://www.rsrit.com/</t>
-  </si>
-  <si>
-    <t>Saikumar Rudharraju saikumar.r@rsrit.com via mailgun.org</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-05 Sun 22:37&gt;</t>
-  </si>
-  <si>
-    <t>Hubspot Developer and Implementation Specialist (Contractor Role)</t>
-  </si>
-  <si>
-    <t>Lenmar Consulting Inc  (a Kellton Tech Company)</t>
-  </si>
-  <si>
-    <t>Valerian-Lenmar &lt;vdcunha@lenmarit.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-05 Sun 22:45&gt;</t>
-  </si>
-  <si>
-    <t>Global Technical Talent, Inc</t>
-  </si>
-  <si>
-    <t>Paula Bryant &lt;pbryant@gttit.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-05 Sun 00:00&gt;</t>
-  </si>
-  <si>
-    <t>Survey Taker</t>
-  </si>
-  <si>
-    <t>Lifepoints</t>
-  </si>
-  <si>
-    <t>http://www.lifepoints.com and SnagaJob.com</t>
-  </si>
-  <si>
-    <t>Anonymous</t>
-  </si>
-  <si>
-    <t>Submitted application</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-06 Mon 09:56&gt;</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Free Books</t>
-  </si>
-  <si>
-    <t>Street Team,</t>
-  </si>
-  <si>
-    <t>Damon Zahariades via m.convertkit.com  damon@artofproductivity.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-06 Mon 21:56&gt;</t>
+    <t>&lt;2019-05-17 Fri 17:54&gt;</t>
+  </si>
+  <si>
+    <t>Automation Engineer</t>
+  </si>
+  <si>
+    <t>$75/hr on C2C and 1099 and $65/hr on W2</t>
+  </si>
+  <si>
+    <t>SOTOCU</t>
+  </si>
+  <si>
+    <t>Ravi Sharma &lt;ravi@sotocu.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-17 Fri 18:10&gt;</t>
+  </si>
+  <si>
+    <t>SQL DBA</t>
+  </si>
+  <si>
+    <t>http://www.net2source.com/</t>
+  </si>
+  <si>
+    <t>Clifford Daniels &lt;clifford@net2source.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-17 Fri 21:56&gt;</t>
   </si>
   <si>
     <t>Systems Integrator VAR</t>
   </si>
   <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
     <t>http://www.linkedin.com</t>
   </si>
   <si>
-    <t>Brian Long Recruiter</t>
+    <t>Pierre Moody Manager Tech Staffing Complete Staffing Solutions</t>
+  </si>
+  <si>
+    <t>Connected and has lead</t>
+  </si>
+  <si>
+    <t>Pat Martin Graphic Designer</t>
   </si>
   <si>
     <t>Connected</t>
   </si>
   <si>
-    <t>&lt;2019-05-06 Mon 22:50&gt;</t>
+    <t>&lt;2019-05-18 Sat 08:56&gt;</t>
   </si>
   <si>
     <t>DevOps Engineer</t>
@@ -160,172 +259,43 @@
     <t>Eric Morra e.morra@huxley.com</t>
   </si>
   <si>
-    <t>&lt;2019-05-06 Mon 22:54&gt;</t>
-  </si>
-  <si>
-    <t>Cloud Infrastructure Engineer</t>
-  </si>
-  <si>
-    <t>https://www.xoriant.com/</t>
-  </si>
-  <si>
-    <t>Avinash Patil &lt;Avinash.Patil@xoriant.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-06 Mon 22:58&gt;</t>
-  </si>
-  <si>
-    <t>Jr. Content/Curriculum Developer</t>
-  </si>
-  <si>
-    <t>http://www.gttit.com/</t>
-  </si>
-  <si>
-    <t>Narendra Singh nsingh@gttit.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-06 Mon 23:05&gt;</t>
-  </si>
-  <si>
-    <t>SOLARIS/REDHAT IT TRANSITION Engr.</t>
-  </si>
-  <si>
-    <t>http://www.pdstech.com/</t>
-  </si>
-  <si>
-    <t>Sana Khan &lt;skhan@pdstech.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-06 Mon 23:08&gt;</t>
-  </si>
-  <si>
-    <t>Document Control Coordinator</t>
-  </si>
-  <si>
-    <t>www.ustechsolutions.com</t>
-  </si>
-  <si>
-    <t>Kiran Kumar Saxena &lt;kirans@ustechsolutionsinc.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-07 Tue 21:56&gt;</t>
-  </si>
-  <si>
-    <t>Yeswanth Kumar Recruiter</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-07 Tue 19:05&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server DBA</t>
-  </si>
-  <si>
-    <t>$90K</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Career Centers</t>
-  </si>
-  <si>
-    <t>Jamie and Ed Lawrence elawrence@masshiremsw.com  Worcester Rd Framingham MA</t>
-  </si>
-  <si>
-    <t>in person</t>
-  </si>
-  <si>
-    <t>Career Center RESEA meeting with Jamie and Ed Lawrence</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-08 Wed 21:56&gt;</t>
-  </si>
-  <si>
-    <t>Balakrisnan Modur Deployment Engineer</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-08 Wed 19:05&gt;</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s)</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Main St Westboro MA</t>
-  </si>
-  <si>
-    <t>Discuss opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-09 Thu 20:48&gt;</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Javen Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Surbhi Singh &lt;surbhi@javentechnologies.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-09 Thu 07:25&gt;</t>
-  </si>
-  <si>
-    <t>AS400 Programmer Analyst</t>
-  </si>
-  <si>
-    <t>Ziprecruiter</t>
-  </si>
-  <si>
-    <t>Team@Ziprecruiter.com</t>
-  </si>
-  <si>
-    <t>Follow up requested informed application was viewed</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-10 Fri 07:25&gt;</t>
-  </si>
-  <si>
-    <t>Informed by ZipRecruiter Job Closed</t>
-  </si>
-  <si>
-    <t>IT Support Engineer (Part Time)</t>
-  </si>
-  <si>
-    <t>Phil@Ziprecruiter.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-11 Sat 06:50&gt;</t>
-  </si>
-  <si>
-    <t>BondLink</t>
-  </si>
-  <si>
-    <t>Kristin Patrick &lt;candidate-0ca890b566e2@bondlink.breezy-mail.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-11 Sat 11:32&gt;</t>
-  </si>
-  <si>
-    <t>IT System Administrator</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t>Amarjeet Savant https://www.monster.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-11 Sat 13:24&gt;</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>City Career Fair</t>
-  </si>
-  <si>
-    <t>Phil@ziprecruiter .com</t>
-  </si>
-  <si>
-    <t>Follow up requested Submitted Application</t>
+    <t>&lt;2019-05-18 Sat 12:36&gt;</t>
+  </si>
+  <si>
+    <t>Senior Data Engineer</t>
+  </si>
+  <si>
+    <t>http://email.bullhorn.com/</t>
+  </si>
+  <si>
+    <t>Amy Borkar via bullhornmail.com</t>
+  </si>
+  <si>
+    <t>Follow-up requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-18 Sat 12:41&gt;</t>
+  </si>
+  <si>
+    <t>Sr. Marketing Communications Specialist</t>
+  </si>
+  <si>
+    <t>VARITE</t>
+  </si>
+  <si>
+    <t>Amit Rai &lt;Amit.Rai@varite.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-18 Sat 15:47&gt;</t>
+  </si>
+  <si>
+    <t>Application Administrator</t>
+  </si>
+  <si>
+    <t>Monster www.Monster.com</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
   </si>
 </sst>
 </file>
@@ -1166,11 +1136,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1242,57 +1215,60 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -1315,21 +1291,21 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -1338,50 +1314,56 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1389,73 +1371,79 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>63</v>
@@ -1464,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1474,203 +1462,143 @@
       <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
         <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
         <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
         <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45070FC4-E406-4D1E-874E-F414F5A0B95C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0443131-AD86-4AB2-87E3-12AABD319497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -43,259 +43,145 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-05-13 Mon 13:24&gt;</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>City Career Fair</t>
-  </si>
-  <si>
-    <t>Phil@ziprecruiter .com</t>
+    <t>&lt;2019-05-20 Mon 19:05&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server DBA</t>
+  </si>
+  <si>
+    <t>$90K</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Career Centers</t>
+  </si>
+  <si>
+    <t>Carlos @masshiremsw.com  Worcester Rd Framingham MA</t>
+  </si>
+  <si>
+    <t>in person</t>
+  </si>
+  <si>
+    <t>RESEA compliance meeting</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-22 Wed 19:05&gt;</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Main St Westboro MA</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-16 Thu 21:56&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator VAR</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>Pamela Bogdanski</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-23 Thu 19:05&gt;</t>
+  </si>
+  <si>
+    <t>Part-time Auditor</t>
+  </si>
+  <si>
+    <t>Doug Cole  dcole@masshiremsw.com  and Eric Fernandes Worcester Rd Framingham MA</t>
+  </si>
+  <si>
+    <t>Sent resume again to Doug and Eric</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-24 Fri 09:20&gt;</t>
+  </si>
+  <si>
+    <t>MS Senior Systems Administrator</t>
+  </si>
+  <si>
+    <t>$85,000 - $105,000 annual (USD)</t>
+  </si>
+  <si>
+    <t>CSS, Inc</t>
+  </si>
+  <si>
+    <t>Phil @ ZipRecruiter &lt;phil@ziprecruiter.com&gt;</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>Job Closed</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-13 Mon 16:11&gt;</t>
-  </si>
-  <si>
-    <t>Software Engineer II</t>
-  </si>
-  <si>
-    <t>RetirementJobs.com/Wayfair https://retirementjobs.com/job/software-engineer-ii-boston-massachusetts-15783128</t>
-  </si>
-  <si>
-    <t>anonymous</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-13 Mon 19:05&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server DBA</t>
-  </si>
-  <si>
-    <t>$90K</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s)</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Main St Westboro MA</t>
-  </si>
-  <si>
-    <t>Discuss opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-14 Tue 19:05&gt;</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Career Centers</t>
-  </si>
-  <si>
-    <t>Ed Lawrence elawrence@masshiremsw.com  Worcester Rd Framingham MA</t>
-  </si>
-  <si>
-    <t>in person</t>
-  </si>
-  <si>
-    <t>Network Meeting Interview Questions</t>
-  </si>
-  <si>
-    <t>Doug Cole dcole@masshiremsw.com  Worcester Rd Framingham MA</t>
-  </si>
-  <si>
-    <t>Responded to Doug and Eric about Examity Lead</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-14 Tue 21:02&gt;</t>
-  </si>
-  <si>
-    <t>Tech Support</t>
-  </si>
-  <si>
-    <t>$45,000 to $70,000 Annually</t>
-  </si>
-  <si>
-    <t>Ziprecruiter/theITSC</t>
-  </si>
-  <si>
-    <t>Phil@Ziprecruiter.com</t>
-  </si>
-  <si>
-    <t>email/web</t>
-  </si>
-  <si>
-    <t>Follow up requested Submitted Application</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-15 Wed 19:05&gt;</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s) at AARP</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Brook St Worcester MA</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-16 Thu 19:05&gt;</t>
-  </si>
-  <si>
-    <t>Responded to Doug and Eric about Examity Lead and sent Resume</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-16 Thu 17:58&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
-  </si>
-  <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
-    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
-  </si>
-  <si>
-    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>Status  and branding workshop.</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-17 Fri 19:05&gt;</t>
-  </si>
-  <si>
-    <t>email &amp; virtual</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-17 Fri 21:02&gt;</t>
-  </si>
-  <si>
-    <t>Follow up requested Submitted Application (2nd Application)</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-17 Fri 17:44&gt;</t>
-  </si>
-  <si>
-    <t>Hubspot Integration Consultant</t>
-  </si>
-  <si>
-    <t>Mondo</t>
-  </si>
-  <si>
-    <t>Carter Lowe carter.lowe@mondo.com</t>
-  </si>
-  <si>
-    <t>Follow up requested</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-17 Fri 17:54&gt;</t>
-  </si>
-  <si>
-    <t>Automation Engineer</t>
-  </si>
-  <si>
-    <t>$75/hr on C2C and 1099 and $65/hr on W2</t>
-  </si>
-  <si>
-    <t>SOTOCU</t>
-  </si>
-  <si>
-    <t>Ravi Sharma &lt;ravi@sotocu.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-17 Fri 18:10&gt;</t>
-  </si>
-  <si>
-    <t>SQL DBA</t>
-  </si>
-  <si>
-    <t>http://www.net2source.com/</t>
-  </si>
-  <si>
-    <t>Clifford Daniels &lt;clifford@net2source.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-17 Fri 21:56&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator VAR</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com</t>
-  </si>
-  <si>
-    <t>Pierre Moody Manager Tech Staffing Complete Staffing Solutions</t>
-  </si>
-  <si>
-    <t>Connected and has lead</t>
-  </si>
-  <si>
-    <t>Pat Martin Graphic Designer</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-18 Sat 08:56&gt;</t>
-  </si>
-  <si>
-    <t>DevOps Engineer</t>
-  </si>
-  <si>
-    <t>Huxley IT</t>
-  </si>
-  <si>
-    <t>Eric Morra e.morra@huxley.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-18 Sat 12:36&gt;</t>
-  </si>
-  <si>
-    <t>Senior Data Engineer</t>
-  </si>
-  <si>
-    <t>http://email.bullhorn.com/</t>
-  </si>
-  <si>
-    <t>Amy Borkar via bullhornmail.com</t>
+    <t>Follow Up Requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-25 Sat 17:23&gt;</t>
+  </si>
+  <si>
+    <t>.Net Developer</t>
+  </si>
+  <si>
+    <t>Nityo Infotech Corporation</t>
+  </si>
+  <si>
+    <t>Vikas Yadav &lt;vikas.y@nityo.com&gt;</t>
   </si>
   <si>
     <t>Follow-up requested</t>
   </si>
   <si>
-    <t>&lt;2019-05-18 Sat 12:41&gt;</t>
-  </si>
-  <si>
-    <t>Sr. Marketing Communications Specialist</t>
-  </si>
-  <si>
-    <t>VARITE</t>
-  </si>
-  <si>
-    <t>Amit Rai &lt;Amit.Rai@varite.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-18 Sat 15:47&gt;</t>
-  </si>
-  <si>
-    <t>Application Administrator</t>
-  </si>
-  <si>
-    <t>Monster www.Monster.com</t>
-  </si>
-  <si>
-    <t>Sandeep</t>
+    <t>&lt;2019-05-25 Sat 08:18&gt;</t>
+  </si>
+  <si>
+    <t>Network Engineer</t>
+  </si>
+  <si>
+    <t>Sigma Systems</t>
+  </si>
+  <si>
+    <t>Kyle Joseph &lt;kjoseph@sigmainc.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-25 Sat 08:24&gt;</t>
+  </si>
+  <si>
+    <t>Senior/Principal Android Engineer</t>
+  </si>
+  <si>
+    <t>$150-$200k + Stock</t>
+  </si>
+  <si>
+    <t>Mason Frank International</t>
+  </si>
+  <si>
+    <t>Erica Schroen  inmail-hit-reply@linkedin.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-25 Sat 08:30&gt;</t>
+  </si>
+  <si>
+    <t>Product Marketing Manager</t>
+  </si>
+  <si>
+    <t>http://www.mondo.com/</t>
+  </si>
+  <si>
+    <t>Jasmine Miller &lt;jasmine.miller@mondo.com&gt;</t>
   </si>
 </sst>
 </file>
@@ -1136,14 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1175,25 +1058,31 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1201,11 +1090,8 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1224,28 +1110,28 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -1253,352 +1139,108 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0443131-AD86-4AB2-87E3-12AABD319497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E519782A-F492-4D07-87CF-5EE6AA7F8648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -43,7 +43,28 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-05-20 Mon 19:05&gt;</t>
+    <t>&lt;2019-05-28 Tue 19:31&gt;</t>
+  </si>
+  <si>
+    <t>Field Service Computer Tech</t>
+  </si>
+  <si>
+    <t>$14/hr</t>
+  </si>
+  <si>
+    <t>CraigsList https://worcester.craigslist.org/tch/d/field-service-computer-tech/6890668643.html</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Follow-up requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-29 Wed 10:00&gt;</t>
   </si>
   <si>
     <t>SQL Server DBA</t>
@@ -52,136 +73,73 @@
     <t>$90K</t>
   </si>
   <si>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-30 Thu 10:00&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
+  </si>
+  <si>
+    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>Status, Miscellaneous job activities</t>
+  </si>
+  <si>
+    <t>&lt;2019-05-31 Fri 18:20&gt;</t>
+  </si>
+  <si>
+    <t>Desktop Support</t>
+  </si>
+  <si>
+    <t>Sun Technologies</t>
+  </si>
+  <si>
+    <t>Dev Prasad &lt;deva@suntechnologies.com&gt;</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-01 Sat 16:57&gt;</t>
+  </si>
+  <si>
+    <t>Mac Desktop support engineer</t>
+  </si>
+  <si>
+    <t>Whiz Global LLC</t>
+  </si>
+  <si>
+    <t>Anuj Marwaha &lt;anuj@whizglobal.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-01 Sat 17:05&gt;</t>
+  </si>
+  <si>
     <t>MassHire Framingham Career Centers</t>
   </si>
   <si>
-    <t>Carlos @masshiremsw.com  Worcester Rd Framingham MA</t>
-  </si>
-  <si>
-    <t>in person</t>
-  </si>
-  <si>
-    <t>RESEA compliance meeting</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-22 Wed 19:05&gt;</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s)</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Main St Westboro MA</t>
-  </si>
-  <si>
-    <t>Discuss opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-16 Thu 21:56&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator VAR</t>
-  </si>
-  <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com</t>
-  </si>
-  <si>
-    <t>Pamela Bogdanski</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-23 Thu 19:05&gt;</t>
-  </si>
-  <si>
-    <t>Part-time Auditor</t>
-  </si>
-  <si>
-    <t>Doug Cole  dcole@masshiremsw.com  and Eric Fernandes Worcester Rd Framingham MA</t>
-  </si>
-  <si>
-    <t>Sent resume again to Doug and Eric</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-24 Fri 09:20&gt;</t>
-  </si>
-  <si>
-    <t>MS Senior Systems Administrator</t>
-  </si>
-  <si>
-    <t>$85,000 - $105,000 annual (USD)</t>
-  </si>
-  <si>
-    <t>CSS, Inc</t>
-  </si>
-  <si>
-    <t>Phil @ ZipRecruiter &lt;phil@ziprecruiter.com&gt;</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Follow Up Requested</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-25 Sat 17:23&gt;</t>
-  </si>
-  <si>
-    <t>.Net Developer</t>
-  </si>
-  <si>
-    <t>Nityo Infotech Corporation</t>
-  </si>
-  <si>
-    <t>Vikas Yadav &lt;vikas.y@nityo.com&gt;</t>
-  </si>
-  <si>
-    <t>Follow-up requested</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-25 Sat 08:18&gt;</t>
-  </si>
-  <si>
-    <t>Network Engineer</t>
-  </si>
-  <si>
-    <t>Sigma Systems</t>
-  </si>
-  <si>
-    <t>Kyle Joseph &lt;kjoseph@sigmainc.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-25 Sat 08:24&gt;</t>
-  </si>
-  <si>
-    <t>Senior/Principal Android Engineer</t>
-  </si>
-  <si>
-    <t>$150-$200k + Stock</t>
-  </si>
-  <si>
-    <t>Mason Frank International</t>
-  </si>
-  <si>
-    <t>Erica Schroen  inmail-hit-reply@linkedin.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-25 Sat 08:30&gt;</t>
-  </si>
-  <si>
-    <t>Product Marketing Manager</t>
-  </si>
-  <si>
-    <t>http://www.mondo.com/</t>
-  </si>
-  <si>
-    <t>Jasmine Miller &lt;jasmine.miller@mondo.com&gt;</t>
+    <t>Eric Fernandes eric.fernandez@state.ma.us Worcester Rd Framingham MA</t>
+  </si>
+  <si>
+    <t>Contacted re- positions at Spencer Technologies</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1079,85 +1037,82 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,82 +1120,22 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E519782A-F492-4D07-87CF-5EE6AA7F8648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3B7AAF-A55B-453D-ABB7-97D4D75478D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -43,103 +43,154 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-05-28 Tue 19:31&gt;</t>
-  </si>
-  <si>
-    <t>Field Service Computer Tech</t>
-  </si>
-  <si>
-    <t>$14/hr</t>
-  </si>
-  <si>
-    <t>CraigsList https://worcester.craigslist.org/tch/d/field-service-computer-tech/6890668643.html</t>
-  </si>
-  <si>
-    <t>Anonymous</t>
-  </si>
-  <si>
-    <t>web</t>
+    <t>&lt;2019-06-03 Mon 10:20&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server DBA</t>
+  </si>
+  <si>
+    <t>$90K</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Career Centers</t>
+  </si>
+  <si>
+    <t>Eric Fernandes eric.fernandez@state.ma.us Worcester Rd Framingham MA</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Eric responded and followed-up</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-03 Mon 18:00&gt;</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-04 Tue 11:15&gt;</t>
+  </si>
+  <si>
+    <t>Informed Eric Job(s) does not exist on website</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-04 Tue 07:50&gt;</t>
+  </si>
+  <si>
+    <t>Administrator - Windows SQL Server</t>
+  </si>
+  <si>
+    <t>$75,000 Annually</t>
+  </si>
+  <si>
+    <t>Distributed Technology Associates Inc</t>
+  </si>
+  <si>
+    <t>Phil@Ziprecruiter.com</t>
+  </si>
+  <si>
+    <t>Submitted application</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-04 Tue 14:55&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-05 Wed 10:00&gt;</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-06 Thu 10:00&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
+  </si>
+  <si>
+    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
+  </si>
+  <si>
+    <t>Status, Miscellaneous job activities</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-06 Thu 15:00&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator VAR</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>Cory &amp; Ira Mojo Global &lt;customercare@gotowebinar.com&gt;</t>
+  </si>
+  <si>
+    <t>email web</t>
+  </si>
+  <si>
+    <t>Attended Webinar</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-07 Fri 21:59&gt;</t>
+  </si>
+  <si>
+    <t>Sr. System Administrator</t>
+  </si>
+  <si>
+    <t>$110,000-$120,000</t>
+  </si>
+  <si>
+    <t>http://www.nescoresource.com/</t>
+  </si>
+  <si>
+    <t>Kyle Hughes &lt;khughes@nescoresource.com&gt;</t>
   </si>
   <si>
     <t>Follow-up requested</t>
   </si>
   <si>
-    <t>&lt;2019-05-29 Wed 10:00&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server DBA</t>
-  </si>
-  <si>
-    <t>$90K</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s)</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
-  </si>
-  <si>
-    <t>Discuss opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-30 Thu 10:00&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
-  </si>
-  <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
-    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
-  </si>
-  <si>
-    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>Status, Miscellaneous job activities</t>
-  </si>
-  <si>
-    <t>&lt;2019-05-31 Fri 18:20&gt;</t>
-  </si>
-  <si>
-    <t>Desktop Support</t>
-  </si>
-  <si>
-    <t>Sun Technologies</t>
-  </si>
-  <si>
-    <t>Dev Prasad &lt;deva@suntechnologies.com&gt;</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-01 Sat 16:57&gt;</t>
-  </si>
-  <si>
-    <t>Mac Desktop support engineer</t>
-  </si>
-  <si>
-    <t>Whiz Global LLC</t>
-  </si>
-  <si>
-    <t>Anuj Marwaha &lt;anuj@whizglobal.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-01 Sat 17:05&gt;</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Career Centers</t>
-  </si>
-  <si>
-    <t>Eric Fernandes eric.fernandez@state.ma.us Worcester Rd Framingham MA</t>
-  </si>
-  <si>
-    <t>Contacted re- positions at Spencer Technologies</t>
+    <t>&lt;2019-06-07 Fri 22:03&gt;</t>
+  </si>
+  <si>
+    <t>Senior Data Engineer</t>
+  </si>
+  <si>
+    <t>Dimensional Thinking, LLC</t>
+  </si>
+  <si>
+    <t>Amy Borkar via bullhornmail.com   Amy.Borkar@dtglobalstaffing.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-07 Fri 22:06&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server Admin</t>
+  </si>
+  <si>
+    <t>Indotronix International Corporation</t>
+  </si>
+  <si>
+    <t>Sharon Kola &lt;sharon@iic.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-08 Sat 14:05&gt;</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1037,105 +1088,246 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3B7AAF-A55B-453D-ABB7-97D4D75478D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC7136B-9357-483D-80C0-91D683884AF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -43,7 +43,28 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-06-03 Mon 10:20&gt;</t>
+    <t>&lt;2019-06-09 Sun 07:00&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator VAR</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>Brett Larsen Recruitment Consultant</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-10 Mon 10:00&gt;</t>
   </si>
   <si>
     <t>SQL Server DBA</t>
@@ -52,145 +73,64 @@
     <t>$90K</t>
   </si>
   <si>
-    <t>MassHire Framingham Career Centers</t>
-  </si>
-  <si>
-    <t>Eric Fernandes eric.fernandez@state.ma.us Worcester Rd Framingham MA</t>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-10 Mon 20:25&gt;</t>
+  </si>
+  <si>
+    <t>Amit Kumar Tech Recruiter</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-11 Tue 22:35&gt;</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>Eric responded and followed-up</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-03 Mon 18:00&gt;</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s)</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
+    <t>&lt;2019-06-13 Thu 10:00&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
+  </si>
+  <si>
+    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
+  </si>
+  <si>
+    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
   </si>
   <si>
     <t>In person</t>
   </si>
   <si>
-    <t>Discuss opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-04 Tue 11:15&gt;</t>
-  </si>
-  <si>
-    <t>Informed Eric Job(s) does not exist on website</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-04 Tue 07:50&gt;</t>
-  </si>
-  <si>
-    <t>Administrator - Windows SQL Server</t>
-  </si>
-  <si>
-    <t>$75,000 Annually</t>
-  </si>
-  <si>
-    <t>Distributed Technology Associates Inc</t>
-  </si>
-  <si>
-    <t>Phil@Ziprecruiter.com</t>
-  </si>
-  <si>
-    <t>Submitted application</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-04 Tue 14:55&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-05 Wed 10:00&gt;</t>
-  </si>
-  <si>
-    <t>In Person</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-06 Thu 10:00&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
-  </si>
-  <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
-    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
-  </si>
-  <si>
-    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
-  </si>
-  <si>
     <t>Status, Miscellaneous job activities</t>
   </si>
   <si>
-    <t>&lt;2019-06-06 Thu 15:00&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator VAR</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com</t>
-  </si>
-  <si>
-    <t>Cory &amp; Ira Mojo Global &lt;customercare@gotowebinar.com&gt;</t>
-  </si>
-  <si>
-    <t>email web</t>
-  </si>
-  <si>
-    <t>Attended Webinar</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-07 Fri 21:59&gt;</t>
-  </si>
-  <si>
-    <t>Sr. System Administrator</t>
-  </si>
-  <si>
-    <t>$110,000-$120,000</t>
-  </si>
-  <si>
-    <t>http://www.nescoresource.com/</t>
-  </si>
-  <si>
-    <t>Kyle Hughes &lt;khughes@nescoresource.com&gt;</t>
+    <t>&lt;2019-06-13 Thu 22:30&gt;</t>
+  </si>
+  <si>
+    <t>Information Technology Specialist</t>
+  </si>
+  <si>
+    <t>All Care Plus Pharmacy</t>
+  </si>
+  <si>
+    <t>Phil phil@ZipRecruiter.com</t>
   </si>
   <si>
     <t>Follow-up requested</t>
   </si>
   <si>
-    <t>&lt;2019-06-07 Fri 22:03&gt;</t>
-  </si>
-  <si>
-    <t>Senior Data Engineer</t>
-  </si>
-  <si>
-    <t>Dimensional Thinking, LLC</t>
-  </si>
-  <si>
-    <t>Amy Borkar via bullhornmail.com   Amy.Borkar@dtglobalstaffing.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-07 Fri 22:06&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server Admin</t>
-  </si>
-  <si>
-    <t>Indotronix International Corporation</t>
-  </si>
-  <si>
-    <t>Sharon Kola &lt;sharon@iic.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-08 Sat 14:05&gt;</t>
+    <t>&lt;2019-06-15 Sat 08:00&gt;</t>
   </si>
 </sst>
 </file>
@@ -1031,11 +971,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1088,27 +1034,27 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1120,214 +1066,102 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC7136B-9357-483D-80C0-91D683884AF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E91C1A-7BE0-4B90-918E-81B9D10EB7CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -43,7 +43,124 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-06-09 Sun 07:00&gt;</t>
+    <t>&lt;2019-06-18 Tue 08:10&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server DBA</t>
+  </si>
+  <si>
+    <t>$90K</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-18 Tue 15:25&gt;</t>
+  </si>
+  <si>
+    <t>IT Support Engineer (Part Time)</t>
+  </si>
+  <si>
+    <t>BondLink</t>
+  </si>
+  <si>
+    <t>Kristin Patrick &lt;candidate-0ca890b566e2@bondlink.breezy-mail.com</t>
+  </si>
+  <si>
+    <t>Position has been filled</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-18 Tue 21:28&gt;</t>
+  </si>
+  <si>
+    <t>Application Support Admin</t>
+  </si>
+  <si>
+    <t>Insight Global, LLC</t>
+  </si>
+  <si>
+    <t>Sami Dobbs &lt;Sami.Dobbs@insightglobal.com&gt;</t>
+  </si>
+  <si>
+    <t>Follow up requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-18 Tue 21:46&gt;</t>
+  </si>
+  <si>
+    <t>Senior Data Cloud Engineer</t>
+  </si>
+  <si>
+    <t>TalentBurst, Inc.</t>
+  </si>
+  <si>
+    <t>Sushil Ray &lt;sushil.ray@talentburst.com&gt;</t>
+  </si>
+  <si>
+    <t>Follow-up requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-18 Tue 22:01&gt;</t>
+  </si>
+  <si>
+    <t>Web Designer-Marketing II</t>
+  </si>
+  <si>
+    <t>www.matrixonweb.com</t>
+  </si>
+  <si>
+    <t>Vivek Tiwari_FR_JAN2019</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-18 Tue 22:13&gt;</t>
+  </si>
+  <si>
+    <t>Sr DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Huxley IT</t>
+  </si>
+  <si>
+    <t>Eric Morra</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-18 Tue 22:19&gt;</t>
+  </si>
+  <si>
+    <t>$110k base salary</t>
+  </si>
+  <si>
+    <t>www.huxleyit.com</t>
+  </si>
+  <si>
+    <t>Debbie Riva</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-20 Thu 10:18&gt;</t>
+  </si>
+  <si>
+    <t>Sami Dobbs &lt;Sami.Dobbs@insightglobal.com&gt; 781.221.7500</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Further discussion about potential opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-20 Thu 09:25&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-21 Fri 19:15&gt;</t>
   </si>
   <si>
     <t>Systems Integrator VAR</t>
@@ -55,82 +172,34 @@
     <t>http://www.linkedin.com</t>
   </si>
   <si>
-    <t>Brett Larsen Recruitment Consultant</t>
-  </si>
-  <si>
     <t>web</t>
   </si>
   <si>
     <t>Connected</t>
   </si>
   <si>
-    <t>&lt;2019-06-10 Mon 10:00&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server DBA</t>
-  </si>
-  <si>
-    <t>$90K</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s)</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
-  </si>
-  <si>
-    <t>In Person</t>
-  </si>
-  <si>
-    <t>Discuss opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-10 Mon 20:25&gt;</t>
-  </si>
-  <si>
-    <t>Amit Kumar Tech Recruiter</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-11 Tue 22:35&gt;</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-13 Thu 10:00&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
-  </si>
-  <si>
-    <t>Tatnuck Booksellers Lyman Rd Westboro</t>
-  </si>
-  <si>
-    <t>David Sullivan and Group tatnuck_group@yahoogroups.com Lyman Westboro MA</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>Status, Miscellaneous job activities</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-13 Thu 22:30&gt;</t>
-  </si>
-  <si>
-    <t>Information Technology Specialist</t>
-  </si>
-  <si>
-    <t>All Care Plus Pharmacy</t>
-  </si>
-  <si>
-    <t>Phil phil@ZipRecruiter.com</t>
-  </si>
-  <si>
-    <t>Follow-up requested</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-15 Sat 08:00&gt;</t>
+    <t>&lt;2019-06-21 Fri 20:12&gt;</t>
+  </si>
+  <si>
+    <t>Client Support Specialist</t>
+  </si>
+  <si>
+    <t>Serraview America</t>
+  </si>
+  <si>
+    <t>Phil phil@ziprecruiter.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-22 Sat 21:13&gt;</t>
+  </si>
+  <si>
+    <t>Systems Administrator</t>
+  </si>
+  <si>
+    <t>Mayflower Communications Company</t>
+  </si>
+  <si>
+    <t>Phil @ ZipRecruiter &lt;phil@ziprecruiter.com</t>
   </si>
 </sst>
 </file>
@@ -971,17 +1040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1036,34 +1099,28 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -1072,96 +1129,193 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E91C1A-7BE0-4B90-918E-81B9D10EB7CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{491B35B8-B532-4351-AB53-A2A2CAF2598E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-06-18 Tue 08:10&gt;</t>
+    <t>&lt;2019-06-24 Mon 13:30&gt;</t>
   </si>
   <si>
     <t>SQL Server DBA</t>
@@ -58,148 +58,61 @@
     <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
   </si>
   <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>Discuss opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-25 Tue 10:30&gt;</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>Discuss opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-18 Tue 15:25&gt;</t>
-  </si>
-  <si>
-    <t>IT Support Engineer (Part Time)</t>
-  </si>
-  <si>
-    <t>BondLink</t>
-  </si>
-  <si>
-    <t>Kristin Patrick &lt;candidate-0ca890b566e2@bondlink.breezy-mail.com</t>
-  </si>
-  <si>
-    <t>Position has been filled</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-18 Tue 21:28&gt;</t>
-  </si>
-  <si>
-    <t>Application Support Admin</t>
-  </si>
-  <si>
-    <t>Insight Global, LLC</t>
-  </si>
-  <si>
-    <t>Sami Dobbs &lt;Sami.Dobbs@insightglobal.com&gt;</t>
+    <t>&lt;2019-06-26 Wed 13:30&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
+  </si>
+  <si>
+    <t>Tatnuck Booksellers Network Meeting</t>
+  </si>
+  <si>
+    <t>David Sullivan Lyman St Westboro MA</t>
+  </si>
+  <si>
+    <t>Networking Meeting</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-28 Fri 11:00&gt;</t>
+  </si>
+  <si>
+    <t>MassHire Framingham Colleague Meeting &amp; Lunch</t>
+  </si>
+  <si>
+    <t>Frank Yeoung and Davidson Eastern Ave Chan Malden MA</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>Discussed opportunities</t>
+  </si>
+  <si>
+    <t>&lt;2019-06-29 Sat 19:05&gt;</t>
+  </si>
+  <si>
+    <t>Programmer Position</t>
+  </si>
+  <si>
+    <t>AllStar Staffing</t>
+  </si>
+  <si>
+    <t>Phil @ ZipRecruiter &lt;phil@ziprecruiter.com&gt;</t>
   </si>
   <si>
     <t>Follow up requested</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-18 Tue 21:46&gt;</t>
-  </si>
-  <si>
-    <t>Senior Data Cloud Engineer</t>
-  </si>
-  <si>
-    <t>TalentBurst, Inc.</t>
-  </si>
-  <si>
-    <t>Sushil Ray &lt;sushil.ray@talentburst.com&gt;</t>
-  </si>
-  <si>
-    <t>Follow-up requested</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-18 Tue 22:01&gt;</t>
-  </si>
-  <si>
-    <t>Web Designer-Marketing II</t>
-  </si>
-  <si>
-    <t>www.matrixonweb.com</t>
-  </si>
-  <si>
-    <t>Vivek Tiwari_FR_JAN2019</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-18 Tue 22:13&gt;</t>
-  </si>
-  <si>
-    <t>Sr DevOps Engineer</t>
-  </si>
-  <si>
-    <t>Huxley IT</t>
-  </si>
-  <si>
-    <t>Eric Morra</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-18 Tue 22:19&gt;</t>
-  </si>
-  <si>
-    <t>$110k base salary</t>
-  </si>
-  <si>
-    <t>www.huxleyit.com</t>
-  </si>
-  <si>
-    <t>Debbie Riva</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-20 Thu 10:18&gt;</t>
-  </si>
-  <si>
-    <t>Sami Dobbs &lt;Sami.Dobbs@insightglobal.com&gt; 781.221.7500</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Further discussion about potential opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-20 Thu 09:25&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-21 Fri 19:15&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator VAR</t>
-  </si>
-  <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-21 Fri 20:12&gt;</t>
-  </si>
-  <si>
-    <t>Client Support Specialist</t>
-  </si>
-  <si>
-    <t>Serraview America</t>
-  </si>
-  <si>
-    <t>Phil phil@ziprecruiter.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-22 Sat 21:13&gt;</t>
-  </si>
-  <si>
-    <t>Systems Administrator</t>
-  </si>
-  <si>
-    <t>Mayflower Communications Company</t>
-  </si>
-  <si>
-    <t>Phil @ ZipRecruiter &lt;phil@ziprecruiter.com</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1097,225 +1010,108 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{491B35B8-B532-4351-AB53-A2A2CAF2598E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEAB4EEA-0682-4FA1-9E04-F14930F36520}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-06-24 Mon 13:30&gt;</t>
+    <t>&lt;2019-07-01 Mon 13:30&gt;</t>
   </si>
   <si>
     <t>SQL Server DBA</t>
@@ -64,55 +64,79 @@
     <t>Discuss opportunities</t>
   </si>
   <si>
-    <t>&lt;2019-06-25 Tue 10:30&gt;</t>
+    <t>&lt;2019-07-01 Mon 15:40&gt;</t>
+  </si>
+  <si>
+    <t>IT Specialist Application</t>
+  </si>
+  <si>
+    <t>AllCare Plus Pharmacy</t>
+  </si>
+  <si>
+    <t>maichao.yang@rxallcare.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Position filled</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-02 Tue 11:00&gt;</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>&lt;2019-06-26 Wed 13:30&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
-  </si>
-  <si>
-    <t>Tatnuck Booksellers Network Meeting</t>
-  </si>
-  <si>
-    <t>David Sullivan Lyman St Westboro MA</t>
-  </si>
-  <si>
-    <t>Networking Meeting</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-28 Fri 11:00&gt;</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague Meeting &amp; Lunch</t>
-  </si>
-  <si>
-    <t>Frank Yeoung and Davidson Eastern Ave Chan Malden MA</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>Discussed opportunities</t>
-  </si>
-  <si>
-    <t>&lt;2019-06-29 Sat 19:05&gt;</t>
-  </si>
-  <si>
-    <t>Programmer Position</t>
-  </si>
-  <si>
-    <t>AllStar Staffing</t>
-  </si>
-  <si>
-    <t>Phil @ ZipRecruiter &lt;phil@ziprecruiter.com&gt;</t>
+    <t>&lt;2019-07-03 Wed 08:30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-04 Thu 14:12&gt;</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>AllStar Staffing Group.</t>
+  </si>
+  <si>
+    <t>Team @ ZipRecruiter &lt;seekerteam@ziprecruiter.com&gt;</t>
+  </si>
+  <si>
+    <t>Closed Position</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-05 Fri 21:23&gt;</t>
+  </si>
+  <si>
+    <t>Managed Services Engineer</t>
+  </si>
+  <si>
+    <t>Integrated IT Solutions</t>
+  </si>
+  <si>
+    <t>Phil phil@ziprecruiter.com</t>
   </si>
   <si>
     <t>Follow up requested</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-05 Fri 21:29&gt;</t>
+  </si>
+  <si>
+    <t>Application Developer</t>
+  </si>
+  <si>
+    <t>Spencer Technologies - Marlborough, MA, USA</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-05 Fri 21:32&gt;</t>
+  </si>
+  <si>
+    <t>Technical Support Representative</t>
+  </si>
+  <si>
+    <t>Company Confidential - Marlborough, MA, USA</t>
   </si>
 </sst>
 </file>
@@ -953,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1010,27 +1034,24 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1045,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1053,65 +1074,102 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEAB4EEA-0682-4FA1-9E04-F14930F36520}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FAA03ED-7828-4365-92FD-3ACB55CB4064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-07-01 Mon 13:30&gt;</t>
+    <t>&lt;2019-07-14 Sun 08:30&gt;</t>
   </si>
   <si>
     <t>SQL Server DBA</t>
@@ -64,79 +64,127 @@
     <t>Discuss opportunities</t>
   </si>
   <si>
-    <t>&lt;2019-07-01 Mon 15:40&gt;</t>
-  </si>
-  <si>
-    <t>IT Specialist Application</t>
-  </si>
-  <si>
-    <t>AllCare Plus Pharmacy</t>
-  </si>
-  <si>
-    <t>maichao.yang@rxallcare.com</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Position filled</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-02 Tue 11:00&gt;</t>
+    <t>&lt;2019-07-15 Mon 21:10&gt;</t>
+  </si>
+  <si>
+    <t>Technical Support Representative</t>
+  </si>
+  <si>
+    <t>Company Confidential - Marlborough, MA, USA</t>
+  </si>
+  <si>
+    <t>Phil phil@ziprecruiter.com</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>&lt;2019-07-03 Wed 08:30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-04 Thu 14:12&gt;</t>
-  </si>
-  <si>
-    <t>Programmer</t>
-  </si>
-  <si>
-    <t>AllStar Staffing Group.</t>
-  </si>
-  <si>
-    <t>Team @ ZipRecruiter &lt;seekerteam@ziprecruiter.com&gt;</t>
-  </si>
-  <si>
-    <t>Closed Position</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-05 Fri 21:23&gt;</t>
-  </si>
-  <si>
-    <t>Managed Services Engineer</t>
-  </si>
-  <si>
-    <t>Integrated IT Solutions</t>
-  </si>
-  <si>
-    <t>Phil phil@ziprecruiter.com</t>
+    <t>No work position closed</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-16 Tue 20:00&gt;</t>
+  </si>
+  <si>
+    <t>Jr Lab Engineer</t>
+  </si>
+  <si>
+    <t>$40/hr</t>
+  </si>
+  <si>
+    <t>http://email.etalentnetwork.com/</t>
+  </si>
+  <si>
+    <t>Kulwinder Singh  kulwinders@etalentnetwork.com</t>
   </si>
   <si>
     <t>Follow up requested</t>
   </si>
   <si>
-    <t>&lt;2019-07-05 Fri 21:29&gt;</t>
-  </si>
-  <si>
-    <t>Application Developer</t>
-  </si>
-  <si>
-    <t>Spencer Technologies - Marlborough, MA, USA</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-05 Fri 21:32&gt;</t>
-  </si>
-  <si>
-    <t>Technical Support Representative</t>
-  </si>
-  <si>
-    <t>Company Confidential - Marlborough, MA, USA</t>
+    <t>&lt;2019-07-16 Tue 20:20&gt;</t>
+  </si>
+  <si>
+    <t>Fullstack PHP Developer</t>
+  </si>
+  <si>
+    <t>AIT Global Inc.</t>
+  </si>
+  <si>
+    <t>Abhishek Sharma &lt;abhishek@aitglobalinc.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-16 Tue 20:39&gt;</t>
+  </si>
+  <si>
+    <t>System Consultant</t>
+  </si>
+  <si>
+    <t>TalentBurst, Inc.</t>
+  </si>
+  <si>
+    <t>Prakash Kumar prakash.kumar@talentburst.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-17 Wed 13:30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-18 Thu 07:30&gt;</t>
+  </si>
+  <si>
+    <t>Multiple Positions</t>
+  </si>
+  <si>
+    <t>MassHire Events/Jobfairs</t>
+  </si>
+  <si>
+    <t>smarshall@masshiremsw.com</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-18 Thu 10:00&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
+  </si>
+  <si>
+    <t>Tatnuck Booksellers Network Meeting</t>
+  </si>
+  <si>
+    <t>David Sullivan Lyman St Westboro MA</t>
+  </si>
+  <si>
+    <t>Networking Meeting</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-18 Thu 17:05&gt;</t>
+  </si>
+  <si>
+    <t>Hardware Field Service Engineer</t>
+  </si>
+  <si>
+    <t>F2OnSite</t>
+  </si>
+  <si>
+    <t>Vivian Quiros &lt;vivian@f2onsite.com&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-19 Fri 12:00&gt;</t>
+  </si>
+  <si>
+    <t>System Integrator VAR</t>
+  </si>
+  <si>
+    <t>CHC 67 Scott Rd Fitchburg (BBQ Outing)</t>
+  </si>
+  <si>
+    <t>Joe Cosowisc</t>
+  </si>
+  <si>
+    <t>Discuss opportunities gave out card</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-19 Fri 19:00&gt;</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com, Lincoln St Leominster</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,122 +1102,194 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FAA03ED-7828-4365-92FD-3ACB55CB4064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9233BC41-D6B1-4F1B-A904-4B767895BA04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -43,118 +43,91 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-07-14 Sun 08:30&gt;</t>
+    <t>&lt;2019-07-22 Mon 09:45&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator</t>
+  </si>
+  <si>
+    <t>$90K</t>
+  </si>
+  <si>
+    <t>Tatnuck Booksellers Network Colleague</t>
+  </si>
+  <si>
+    <t>Chris Bradley</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>Referral contact Tony Merlino</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-22 Mon 13:30&gt;</t>
   </si>
   <si>
     <t>SQL Server DBA</t>
   </si>
   <si>
-    <t>$90K</t>
-  </si>
-  <si>
     <t>MassHire Framingham Colleague(s)</t>
   </si>
   <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, David Sullivan Boston Post Rd Marlboro MA</t>
-  </si>
-  <si>
-    <t>In Person</t>
+    <t>Frank Yeoung  frankxyeung@gmail.com David Sullivan Boston Post Rd Marlborough</t>
   </si>
   <si>
     <t>Discuss opportunities</t>
   </si>
   <si>
-    <t>&lt;2019-07-15 Mon 21:10&gt;</t>
-  </si>
-  <si>
-    <t>Technical Support Representative</t>
-  </si>
-  <si>
-    <t>Company Confidential - Marlborough, MA, USA</t>
-  </si>
-  <si>
-    <t>Phil phil@ziprecruiter.com</t>
+    <t>&lt;2019-07-22 Mon 09:44&gt;</t>
+  </si>
+  <si>
+    <t>IT Professional</t>
+  </si>
+  <si>
+    <t>Overture Partners, LLC</t>
+  </si>
+  <si>
+    <t>Tony Melino 617-614-9600 x 129 tmelino@overturepartners.com</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>No work position closed</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-16 Tue 20:00&gt;</t>
-  </si>
-  <si>
-    <t>Jr Lab Engineer</t>
-  </si>
-  <si>
-    <t>$40/hr</t>
-  </si>
-  <si>
-    <t>http://email.etalentnetwork.com/</t>
-  </si>
-  <si>
-    <t>Kulwinder Singh  kulwinders@etalentnetwork.com</t>
-  </si>
-  <si>
     <t>Follow up requested</t>
   </si>
   <si>
-    <t>&lt;2019-07-16 Tue 20:20&gt;</t>
-  </si>
-  <si>
-    <t>Fullstack PHP Developer</t>
-  </si>
-  <si>
-    <t>AIT Global Inc.</t>
-  </si>
-  <si>
-    <t>Abhishek Sharma &lt;abhishek@aitglobalinc.com&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-16 Tue 20:39&gt;</t>
-  </si>
-  <si>
-    <t>System Consultant</t>
-  </si>
-  <si>
-    <t>TalentBurst, Inc.</t>
-  </si>
-  <si>
-    <t>Prakash Kumar prakash.kumar@talentburst.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-17 Wed 13:30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-18 Thu 07:30&gt;</t>
-  </si>
-  <si>
-    <t>Multiple Positions</t>
-  </si>
-  <si>
-    <t>MassHire Events/Jobfairs</t>
-  </si>
-  <si>
-    <t>smarshall@masshiremsw.com</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-18 Thu 10:00&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
-  </si>
-  <si>
-    <t>Tatnuck Booksellers Network Meeting</t>
-  </si>
-  <si>
-    <t>David Sullivan Lyman St Westboro MA</t>
-  </si>
-  <si>
-    <t>Networking Meeting</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-18 Thu 17:05&gt;</t>
+    <t>&lt;2019-07-23 Tue 09:44&gt;</t>
+  </si>
+  <si>
+    <t>Tony Merlino 617-614-9600 x 129</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-25 Thu 15:00&gt;</t>
+  </si>
+  <si>
+    <t>Systems Integrator VAR</t>
+  </si>
+  <si>
+    <t>$90K/yr</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>Tony Melino Recruiter</t>
+  </si>
+  <si>
+    <t>email web</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-19 Fri 09:00&gt;</t>
   </si>
   <si>
     <t>Hardware Field Service Engineer</t>
@@ -166,25 +139,16 @@
     <t>Vivian Quiros &lt;vivian@f2onsite.com&gt;</t>
   </si>
   <si>
-    <t>&lt;2019-07-19 Fri 12:00&gt;</t>
-  </si>
-  <si>
-    <t>System Integrator VAR</t>
-  </si>
-  <si>
-    <t>CHC 67 Scott Rd Fitchburg (BBQ Outing)</t>
-  </si>
-  <si>
-    <t>Joe Cosowisc</t>
-  </si>
-  <si>
-    <t>Discuss opportunities gave out card</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-19 Fri 19:00&gt;</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com, Lincoln St Leominster</t>
+    <t>On-hold</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-26 Fri 18:30&gt;</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com David Sullivan Worcester Rd Framingham</t>
+  </si>
+  <si>
+    <t>Discuss opportunities and party</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,6 +1048,9 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -1091,205 +1058,116 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/UI_report.xlsx
+++ b/UI_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayni\Documents\Projects\Ruby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9233BC41-D6B1-4F1B-A904-4B767895BA04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66447A68-D40B-4687-A9D4-80090062763A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -43,52 +43,37 @@
     <t>Results</t>
   </si>
   <si>
-    <t>&lt;2019-07-22 Mon 09:45&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator</t>
+    <t>&lt;2019-07-30 Tue 08:30&gt;</t>
+  </si>
+  <si>
+    <t>SQL Server DBA</t>
   </si>
   <si>
     <t>$90K</t>
   </si>
   <si>
-    <t>Tatnuck Booksellers Network Colleague</t>
-  </si>
-  <si>
-    <t>Chris Bradley</t>
+    <t>MassHire Framingham Colleague(s)</t>
+  </si>
+  <si>
+    <t>Frank Yeoung  frankxyeung@gmail.com David Sullivan Boston Post Rd Marlborough</t>
   </si>
   <si>
     <t>In Person</t>
   </si>
   <si>
-    <t>Referral contact Tony Merlino</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-22 Mon 13:30&gt;</t>
-  </si>
-  <si>
-    <t>SQL Server DBA</t>
-  </si>
-  <si>
-    <t>MassHire Framingham Colleague(s)</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com David Sullivan Boston Post Rd Marlborough</t>
-  </si>
-  <si>
     <t>Discuss opportunities</t>
   </si>
   <si>
-    <t>&lt;2019-07-22 Mon 09:44&gt;</t>
-  </si>
-  <si>
-    <t>IT Professional</t>
-  </si>
-  <si>
-    <t>Overture Partners, LLC</t>
-  </si>
-  <si>
-    <t>Tony Melino 617-614-9600 x 129 tmelino@overturepartners.com</t>
+    <t>&lt;2019-07-31 Wed 08:30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2019-07-31 Wed 10:02&gt;</t>
+  </si>
+  <si>
+    <t>MassHire</t>
+  </si>
+  <si>
+    <t>MassHire Metro South/West Business Services Team  smarshall@masshiremsw.com</t>
   </si>
   <si>
     <t>email</t>
@@ -97,58 +82,7 @@
     <t>Follow up requested</t>
   </si>
   <si>
-    <t>&lt;2019-07-23 Tue 09:44&gt;</t>
-  </si>
-  <si>
-    <t>Tony Merlino 617-614-9600 x 129</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-25 Thu 15:00&gt;</t>
-  </si>
-  <si>
-    <t>Systems Integrator VAR</t>
-  </si>
-  <si>
-    <t>$90K/yr</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com</t>
-  </si>
-  <si>
-    <t>Tony Melino Recruiter</t>
-  </si>
-  <si>
-    <t>email web</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-19 Fri 09:00&gt;</t>
-  </si>
-  <si>
-    <t>Hardware Field Service Engineer</t>
-  </si>
-  <si>
-    <t>F2OnSite</t>
-  </si>
-  <si>
-    <t>Vivian Quiros &lt;vivian@f2onsite.com&gt;</t>
-  </si>
-  <si>
-    <t>On-hold</t>
-  </si>
-  <si>
-    <t>&lt;2019-07-26 Fri 18:30&gt;</t>
-  </si>
-  <si>
-    <t>Frank Yeoung  frankxyeung@gmail.com David Sullivan Worcester Rd Framingham</t>
-  </si>
-  <si>
-    <t>Discuss opportunities and party</t>
+    <t>&lt;2019-08-02 Fri 12:00&gt;</t>
   </si>
 </sst>
 </file>
@@ -989,9 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1046,128 +982,65 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
